--- a/biology/Médecine/Pierre_Deniker/Pierre_Deniker.xlsx
+++ b/biology/Médecine/Pierre_Deniker/Pierre_Deniker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Deniker est un psychiatre français né à Paris 14e le 16 février 1917 et mort à Paris 8e le 17 août 1998[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Deniker est un psychiatre français né à Paris 14e le 16 février 1917 et mort à Paris 8e le 17 août 1998.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a obtenu son doctorat en médecine en 1945. Il devient professeur de psychiatrie et de neurologie en 1961. Il a été ensuite médecin-chef de service au Centre hospitalier Sainte-Anne jusqu'en 1985. Il a été rédacteur en chef de la revue L'Encéphale (Paris) de 1975 à sa mort en 1998[2]. Il a été membre de l’Académie nationale de médecine[2].
-Il a collaboré avec le psychiatre Jean Delay sur une classification des drogues (médicaments psychotropes). Il a travaillé sur le 4560 RP (chlorpromazine), le premier neuroleptique, découvert en décembre 1950 par Henri Laborit[3] et testé par Paul Guiraud, et fut le premier à utiliser cette molécule dans le traitement des psychoses.
-Jean-Pierre Olié[4] a créé en 2007, avec le professeur Henri Lôo, une Fondation reconnue d'utilité publique, la Fondation Pierre-Deniker qui poursuit la philosophie héritée de Pierre Deniker et organise un colloque intitulé « Journées Pierre Deniker »[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a obtenu son doctorat en médecine en 1945. Il devient professeur de psychiatrie et de neurologie en 1961. Il a été ensuite médecin-chef de service au Centre hospitalier Sainte-Anne jusqu'en 1985. Il a été rédacteur en chef de la revue L'Encéphale (Paris) de 1975 à sa mort en 1998. Il a été membre de l’Académie nationale de médecine.
+Il a collaboré avec le psychiatre Jean Delay sur une classification des drogues (médicaments psychotropes). Il a travaillé sur le 4560 RP (chlorpromazine), le premier neuroleptique, découvert en décembre 1950 par Henri Laborit et testé par Paul Guiraud, et fut le premier à utiliser cette molécule dans le traitement des psychoses.
+Jean-Pierre Olié a créé en 2007, avec le professeur Henri Lôo, une Fondation reconnue d'utilité publique, la Fondation Pierre-Deniker qui poursuit la philosophie héritée de Pierre Deniker et organise un colloque intitulé « Journées Pierre Deniker ».
 </t>
         </is>
       </c>
@@ -544,12 +558,14 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1957 : Prix Albert Lasker pour la recherche médicale[2],[6].
- Chevalier de la Légion d'honneur[2].
- Officier de l'ordre national du Mérite[2].
- Croix de guerre 1939-1945[2].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1957 : Prix Albert Lasker pour la recherche médicale,.
+ Chevalier de la Légion d'honneur.
+ Officier de l'ordre national du Mérite.
+ Croix de guerre 1939-1945.</t>
         </is>
       </c>
     </row>
@@ -577,7 +593,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La psycho-pharmacologie, 1969,  PUF, coll. « Que sais-je ? », 128 p.
 (avec Daniel Ginestet et Benoît Dalle) Maniement des médicaments psychotropes, Édition Doin, 1980, 180 p.  (ISBN 978-2704003402)
